--- a/ERP/ERP.CommonLayer/dump/century.xlsx
+++ b/ERP/ERP.CommonLayer/dump/century.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1965" windowWidth="20055" windowHeight="6045"/>
+    <workbookView xWindow="135" yWindow="-120" windowWidth="20055" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,12 +757,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -873,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -883,7 +889,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +967,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,6 +1058,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,9 +1076,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1075,12 +1085,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,6 +1103,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,16 +1413,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1413,709 +1431,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>47.29</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>56.35</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>67.53</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>83.4</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="15">
+      <c r="H4" s="21"/>
+      <c r="I4" s="14">
         <v>105.35</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <v>123.28</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>200.88</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>41.8</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>50.15</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19">
         <v>60.35</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>71.7</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14">
         <v>92.9</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
         <v>110.4</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>46.15</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>54.7</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="20">
+      <c r="E6" s="14"/>
+      <c r="F6" s="19">
         <v>66.25</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>81.63</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <v>103.75</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
         <v>120.85</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>193.95</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>44.1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>51.9</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20">
+      <c r="E7" s="14"/>
+      <c r="F7" s="19">
         <v>62.46</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>76.819999999999993</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
         <v>97</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>114.3</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>184.3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="58">
+    <row r="8" spans="1:15" s="60" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="56">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="58">
         <v>39.4</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>46.1</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59">
         <v>55.8</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="59">
         <v>69.2</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61">
+      <c r="H8" s="59"/>
+      <c r="I8" s="59">
         <v>87.4</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61">
+      <c r="J8" s="59"/>
+      <c r="K8" s="59">
         <v>101.8</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="59">
         <v>163.25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="58">
+    <row r="9" spans="1:15" s="60" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="56">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>33.6</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>40.35</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>58.5</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61">
+      <c r="H9" s="59"/>
+      <c r="I9" s="59">
         <v>72.900000000000006</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
+      <c r="J9" s="59"/>
+      <c r="K9" s="59">
         <v>85.5</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21">
+      <c r="C10" s="23"/>
+      <c r="D10" s="20">
         <v>47.1</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20">
         <v>56.7</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>68.45</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <v>78.75</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
         <v>94.95</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21">
+      <c r="C11" s="23"/>
+      <c r="D11" s="20">
         <v>55.9</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20">
         <v>67.75</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>83.4</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
         <v>104.3</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <v>122.6</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25">
         <v>37.950000000000003</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>46.95</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>60.5</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <v>72.5</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <v>80</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25">
         <v>30.45</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>37.950000000000003</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="15">
+      <c r="F13" s="25"/>
+      <c r="G13" s="14">
         <v>47</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>53</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14">
         <v>57.5</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
         <v>31.15</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>37.15</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26">
+      <c r="F14" s="28"/>
+      <c r="G14" s="25">
         <v>42.4</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19">
         <v>46.9</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>53.15</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="78" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
       <c r="E15" s="80"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="39">
+      <c r="A16" s="37">
         <v>1</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="23">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="22">
         <v>55.65</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="39">
+      <c r="A17" s="37">
         <v>2</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="23">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="22">
         <v>60.95</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="39">
+      <c r="A18" s="37">
         <v>3</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="23">
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="22">
         <v>65.25</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="39">
+      <c r="A19" s="37">
         <v>4</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="23">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="22">
         <v>73.45</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="39">
+      <c r="A20" s="37">
         <v>5</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="23">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="22">
         <v>65.900000000000006</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="39">
+      <c r="A22" s="37">
         <v>6</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="23">
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="22">
         <v>93.15</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="39">
+      <c r="A23" s="37">
         <v>7</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="23">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="22">
         <v>105.75</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31"/>
@@ -2160,17 +2178,17 @@
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
@@ -2184,17 +2202,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="33" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="43.7109375" customWidth="1"/>
@@ -2214,51 +2232,51 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="84"/>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="47.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>40</v>
       </c>
       <c r="H6"/>
@@ -2267,74 +2285,74 @@
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35">
         <v>4.75</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>5</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>5.25</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="32"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35">
         <v>7</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>7.5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>7.75</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34">
         <v>9.75</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>10.25</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>14.5</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>6.25</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>6.75</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>7.25</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>1.5</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>2.25</v>
       </c>
       <c r="H10"/>
@@ -2343,22 +2361,22 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>21.5</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>9.5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>10</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>10.75</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>3.25</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>4.5</v>
       </c>
       <c r="H11"/>
@@ -2367,20 +2385,20 @@
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>28.5</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35">
+      <c r="C12" s="35"/>
+      <c r="D12" s="34">
         <v>13.5</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>14.25</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>5.5</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>6.25</v>
       </c>
       <c r="H12"/>
@@ -2389,202 +2407,202 @@
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35">
         <v>31</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="32"/>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35">
         <v>42.5</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32"/>
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>30</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>11.5</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>12</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>12.5</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>45.25</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>17.25</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>17.75</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>18.75</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="32"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>60.25</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="35">
+      <c r="C17" s="35"/>
+      <c r="D17" s="34">
         <v>23.5</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>25</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89">
         <v>6.75</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="88">
         <v>7.75</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="90">
         <v>1.75</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="88">
         <v>2.75</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89">
         <v>9.5</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="88">
         <v>11.25</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="8">
+      <c r="E19" s="88"/>
+      <c r="F19" s="90">
         <v>2.75</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="88">
         <v>3.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36">
+      <c r="B20" s="88"/>
+      <c r="C20" s="89">
         <v>19.5</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="33"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="8">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90">
         <v>3</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="88">
         <v>4.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="8">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90">
         <v>5.25</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="88">
         <v>6.75</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="90">
         <v>7</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="96">
         <v>10.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" ht="21">
       <c r="A24" s="4"/>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
@@ -2593,7 +2611,7 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="C26" s="3"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -2601,7 +2619,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="C27" s="3"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -2609,7 +2627,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="C28" s="3"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -2617,7 +2635,7 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="34"/>
+      <c r="A29" s="33"/>
       <c r="C29" s="3"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -2625,7 +2643,7 @@
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="34"/>
+      <c r="A30" s="33"/>
       <c r="C30" s="3"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -2633,7 +2651,7 @@
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="34"/>
+      <c r="A31" s="33"/>
       <c r="C31" s="3"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -2641,7 +2659,7 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="C32" s="3"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -2649,7 +2667,7 @@
       <c r="H32"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="34"/>
+      <c r="A33" s="33"/>
       <c r="C33" s="3"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -2657,7 +2675,7 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33"/>
       <c r="C34" s="3"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -2665,7 +2683,7 @@
       <c r="H34"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="C35" s="3"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -2705,252 +2723,252 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>18</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>24</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>30</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>37</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>48</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>60</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>76</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>21.5</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>25.5</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>32.5</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>37</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>52</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>42.5</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>46</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>49.5</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>54.5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>60.5</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>7439</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>4585</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>3187</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>1661</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>363</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>8202</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>5046</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>3448</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>1781</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>932</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>8689</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>5345</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>3658</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>1886</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>979</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
         <v>1668</v>
@@ -2963,68 +2981,68 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="41">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="39">
         <v>7226</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <v>1505</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <v>630</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1"/>
   </sheetData>
